--- a/data/glossaries/glossary_GEF-EAS (EN_SP_ES).xlsx
+++ b/data/glossaries/glossary_GEF-EAS (EN_SP_ES).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julienmhp/Desktop/undp/TargetAssessmentReport/data/glossaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8C9A33C-3623-BC47-B900-4FEB1F76A350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DEF65DE-EBAF-9C4C-8635-223CF0655DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17100" windowHeight="22240" xr2:uid="{278E6105-A98E-3046-A49D-25C6A53C5653}"/>
   </bookViews>
@@ -16,9 +16,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="glossary_GEF_EAS__EN_SP_ES" localSheetId="0">Sheet1!$A$1:$D$101</definedName>
+    <definedName name="glossary_GEF_EAS__EN_SP_ES" localSheetId="0">Sheet1!$A$1:$D$111</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="222">
   <si>
     <t>2030 Agenda for Sustainable Development</t>
   </si>
@@ -614,21 +614,12 @@
     <t>national targets</t>
   </si>
   <si>
-    <t>metas macionales</t>
-  </si>
-  <si>
     <t>meta nacionale</t>
   </si>
   <si>
     <t>Áreas Protegidas</t>
   </si>
   <si>
-    <t>area-based conservation measures</t>
-  </si>
-  <si>
-    <t>medidas de conservación baseadas en áreas</t>
-  </si>
-  <si>
     <t>indigenous and traditional territories</t>
   </si>
   <si>
@@ -653,13 +644,82 @@
     <t>PICL</t>
   </si>
   <si>
-    <t>key biodiversity areas</t>
-  </si>
-  <si>
-    <t>áreas clave de biodiversidad</t>
-  </si>
-  <si>
     <t>Iniciativa Ecuatorial</t>
+  </si>
+  <si>
+    <t>Assessment Report</t>
+  </si>
+  <si>
+    <t>Informe de evaluación</t>
+  </si>
+  <si>
+    <t>Climate Hub</t>
+  </si>
+  <si>
+    <t>Hub Climático</t>
+  </si>
+  <si>
+    <t>Climate Promise</t>
+  </si>
+  <si>
+    <t>Promesa Climática</t>
+  </si>
+  <si>
+    <t>Intergovernmental Panel on Climate Change</t>
+  </si>
+  <si>
+    <t>Intergovernmental Science-Policy Platform on Climate Change</t>
+  </si>
+  <si>
+    <t>Panel Intergubernamental sobre el Cambio Climático</t>
+  </si>
+  <si>
+    <t>Plataforma intergubernamental científico-normativa sobre diversidad biológica y servicios de los ecosistemas</t>
+  </si>
+  <si>
+    <t>key biodiversity area</t>
+  </si>
+  <si>
+    <t>área clave de biodiversidad</t>
+  </si>
+  <si>
+    <t>Land Degradation neutrality</t>
+  </si>
+  <si>
+    <t>Neutralidad de la Degradación de las Tierras</t>
+  </si>
+  <si>
+    <t>LDN</t>
+  </si>
+  <si>
+    <t>NDT</t>
+  </si>
+  <si>
+    <t>metas nacionales</t>
+  </si>
+  <si>
+    <t>Nature Hub</t>
+  </si>
+  <si>
+    <t>Hub de Naturaleza</t>
+  </si>
+  <si>
+    <t>Nature Pledge</t>
+  </si>
+  <si>
+    <t>Compromiso por la Naturaleza</t>
+  </si>
+  <si>
+    <t>UNFCCC</t>
+  </si>
+  <si>
+    <t>CMNUCC</t>
+  </si>
+  <si>
+    <t>United Nations Framework Convention on Climate Change</t>
+  </si>
+  <si>
+    <t>Convención Marco de las Naciones Unidas sobre el Cambio Climático</t>
   </si>
 </sst>
 </file>
@@ -1035,14 +1095,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50504053-5EBB-F745-8123-E597318121B2}">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="B107" sqref="B107"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="66.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="80.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.1640625" customWidth="1"/>
+    <col min="2" max="2" width="57.1640625" customWidth="1"/>
     <col min="3" max="4" width="3.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1118,10 +1180,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="B6" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
@@ -1244,10 +1306,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>199</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>200</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
@@ -1258,10 +1320,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>201</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>202</v>
       </c>
       <c r="C16" t="s">
         <v>2</v>
@@ -1272,10 +1334,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
@@ -1286,10 +1348,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
@@ -1300,10 +1362,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
@@ -1314,10 +1376,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
@@ -1328,10 +1390,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
@@ -1342,10 +1404,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
@@ -1356,10 +1418,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
         <v>2</v>
@@ -1370,10 +1432,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
         <v>2</v>
@@ -1384,10 +1446,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
         <v>2</v>
@@ -1398,10 +1460,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
@@ -1412,10 +1474,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C27" t="s">
         <v>2</v>
@@ -1426,10 +1488,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C28" t="s">
         <v>2</v>
@@ -1440,10 +1502,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C29" t="s">
         <v>2</v>
@@ -1454,10 +1516,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
@@ -1468,10 +1530,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C31" t="s">
         <v>2</v>
@@ -1482,10 +1544,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C32" t="s">
         <v>2</v>
@@ -1496,10 +1558,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C33" t="s">
         <v>2</v>
@@ -1510,10 +1572,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C34" t="s">
         <v>2</v>
@@ -1524,10 +1586,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
@@ -1538,10 +1600,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
@@ -1552,10 +1614,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C37" t="s">
         <v>2</v>
@@ -1566,10 +1628,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C38" t="s">
         <v>2</v>
@@ -1580,10 +1642,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C39" t="s">
         <v>2</v>
@@ -1594,10 +1656,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C40" t="s">
         <v>2</v>
@@ -1608,10 +1670,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C41" t="s">
         <v>2</v>
@@ -1622,10 +1684,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C42" t="s">
         <v>2</v>
@@ -1636,10 +1698,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B43" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C43" t="s">
         <v>2</v>
@@ -1650,10 +1712,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B44" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C44" t="s">
         <v>2</v>
@@ -1664,10 +1726,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B45" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C45" t="s">
         <v>2</v>
@@ -1678,10 +1740,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B46" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
@@ -1692,10 +1754,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B47" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C47" t="s">
         <v>2</v>
@@ -1706,10 +1768,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B48" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C48" t="s">
         <v>2</v>
@@ -1720,10 +1782,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B49" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C49" t="s">
         <v>2</v>
@@ -1734,10 +1796,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>191</v>
+        <v>94</v>
       </c>
       <c r="B50" t="s">
-        <v>192</v>
+        <v>95</v>
       </c>
       <c r="C50" t="s">
         <v>2</v>
@@ -1748,10 +1810,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>193</v>
+        <v>96</v>
       </c>
       <c r="B51" t="s">
-        <v>194</v>
+        <v>97</v>
       </c>
       <c r="C51" t="s">
         <v>2</v>
@@ -1762,10 +1824,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>98</v>
+        <v>188</v>
       </c>
       <c r="B52" t="s">
-        <v>99</v>
+        <v>189</v>
       </c>
       <c r="C52" t="s">
         <v>2</v>
@@ -1776,10 +1838,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B53" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C53" t="s">
         <v>2</v>
@@ -1790,10 +1852,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B54" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C54" t="s">
         <v>2</v>
@@ -1804,10 +1866,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B55" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C55" t="s">
         <v>2</v>
@@ -1818,10 +1880,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>102</v>
+        <v>203</v>
       </c>
       <c r="B56" t="s">
-        <v>103</v>
+        <v>205</v>
       </c>
       <c r="C56" t="s">
         <v>2</v>
@@ -1832,10 +1894,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B57" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C57" t="s">
         <v>2</v>
@@ -1846,10 +1908,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B58" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C58" t="s">
         <v>2</v>
@@ -1860,10 +1922,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>106</v>
+        <v>194</v>
       </c>
       <c r="B59" t="s">
-        <v>107</v>
+        <v>195</v>
       </c>
       <c r="C59" t="s">
         <v>2</v>
@@ -1874,10 +1936,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B60" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C60" t="s">
         <v>2</v>
@@ -1888,10 +1950,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>110</v>
+        <v>207</v>
       </c>
       <c r="B61" t="s">
-        <v>110</v>
+        <v>208</v>
       </c>
       <c r="C61" t="s">
         <v>2</v>
@@ -1902,10 +1964,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B62" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C62" t="s">
         <v>2</v>
@@ -1916,10 +1978,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B63" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C63" t="s">
         <v>2</v>
@@ -1930,10 +1992,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B64" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C64" t="s">
         <v>2</v>
@@ -1944,10 +2006,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>117</v>
+        <v>209</v>
       </c>
       <c r="B65" t="s">
-        <v>118</v>
+        <v>210</v>
       </c>
       <c r="C65" t="s">
         <v>2</v>
@@ -1958,10 +2020,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>119</v>
+        <v>211</v>
       </c>
       <c r="B66" t="s">
-        <v>120</v>
+        <v>212</v>
       </c>
       <c r="C66" t="s">
         <v>2</v>
@@ -1972,10 +2034,10 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B67" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C67" t="s">
         <v>2</v>
@@ -1986,10 +2048,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B68" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C68" t="s">
         <v>2</v>
@@ -2000,10 +2062,10 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>181</v>
+        <v>113</v>
       </c>
       <c r="B69" t="s">
-        <v>182</v>
+        <v>114</v>
       </c>
       <c r="C69" t="s">
         <v>2</v>
@@ -2014,10 +2076,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>183</v>
+        <v>115</v>
       </c>
       <c r="B70" t="s">
-        <v>184</v>
+        <v>116</v>
       </c>
       <c r="C70" t="s">
         <v>2</v>
@@ -2028,10 +2090,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>185</v>
+        <v>117</v>
       </c>
       <c r="B71" t="s">
-        <v>186</v>
+        <v>118</v>
       </c>
       <c r="C71" t="s">
         <v>2</v>
@@ -2042,10 +2104,10 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>177</v>
+        <v>119</v>
       </c>
       <c r="B72" t="s">
-        <v>187</v>
+        <v>120</v>
       </c>
       <c r="C72" t="s">
         <v>2</v>
@@ -2056,10 +2118,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B73" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C73" t="s">
         <v>2</v>
@@ -2070,10 +2132,10 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B74" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C74" t="s">
         <v>2</v>
@@ -2084,10 +2146,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>129</v>
+        <v>181</v>
       </c>
       <c r="B75" t="s">
-        <v>130</v>
+        <v>182</v>
       </c>
       <c r="C75" t="s">
         <v>2</v>
@@ -2098,10 +2160,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>131</v>
+        <v>183</v>
       </c>
       <c r="B76" t="s">
-        <v>131</v>
+        <v>184</v>
       </c>
       <c r="C76" t="s">
         <v>2</v>
@@ -2112,10 +2174,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>132</v>
+        <v>185</v>
       </c>
       <c r="B77" t="s">
-        <v>133</v>
+        <v>213</v>
       </c>
       <c r="C77" t="s">
         <v>2</v>
@@ -2126,10 +2188,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>134</v>
+        <v>177</v>
       </c>
       <c r="B78" t="s">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="C78" t="s">
         <v>2</v>
@@ -2140,10 +2202,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>178</v>
+        <v>214</v>
       </c>
       <c r="B79" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="C79" t="s">
         <v>2</v>
@@ -2154,10 +2216,10 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="B80" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="C80" t="s">
         <v>2</v>
@@ -2168,10 +2230,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="B81" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="C81" t="s">
         <v>2</v>
@@ -2182,10 +2244,10 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="B82" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="C82" t="s">
         <v>2</v>
@@ -2196,10 +2258,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="B83" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C83" t="s">
         <v>2</v>
@@ -2210,10 +2272,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="B84" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="C84" t="s">
         <v>2</v>
@@ -2224,10 +2286,10 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B85" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="C85" t="s">
         <v>2</v>
@@ -2238,10 +2300,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="B86" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="C86" t="s">
         <v>2</v>
@@ -2252,10 +2314,10 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="B87" t="s">
-        <v>151</v>
+        <v>187</v>
       </c>
       <c r="C87" t="s">
         <v>2</v>
@@ -2266,10 +2328,10 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="B88" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="C88" t="s">
         <v>2</v>
@@ -2280,10 +2342,10 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="B89" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="C89" t="s">
         <v>2</v>
@@ -2294,10 +2356,10 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="B90" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="C90" t="s">
         <v>2</v>
@@ -2308,10 +2370,10 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="B91" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="C91" t="s">
         <v>2</v>
@@ -2322,10 +2384,10 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="B92" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="C92" t="s">
         <v>2</v>
@@ -2336,10 +2398,10 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="B93" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="C93" t="s">
         <v>2</v>
@@ -2350,10 +2412,10 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="B94" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="C94" t="s">
         <v>2</v>
@@ -2364,10 +2426,10 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="B95" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="C95" t="s">
         <v>2</v>
@@ -2378,10 +2440,10 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="B96" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="C96" t="s">
         <v>2</v>
@@ -2392,10 +2454,10 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="B97" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="C97" t="s">
         <v>2</v>
@@ -2406,10 +2468,10 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="B98" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="C98" t="s">
         <v>2</v>
@@ -2420,10 +2482,10 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="B99" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="C99" t="s">
         <v>2</v>
@@ -2434,10 +2496,10 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="B100" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="C100" t="s">
         <v>2</v>
@@ -2448,15 +2510,155 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>162</v>
+      </c>
+      <c r="B101" t="s">
+        <v>163</v>
+      </c>
+      <c r="C101" t="s">
+        <v>2</v>
+      </c>
+      <c r="D101" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>164</v>
+      </c>
+      <c r="B102" t="s">
+        <v>165</v>
+      </c>
+      <c r="C102" t="s">
+        <v>2</v>
+      </c>
+      <c r="D102" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>218</v>
+      </c>
+      <c r="B103" t="s">
+        <v>219</v>
+      </c>
+      <c r="C103" t="s">
+        <v>2</v>
+      </c>
+      <c r="D103" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>166</v>
+      </c>
+      <c r="B104" t="s">
+        <v>167</v>
+      </c>
+      <c r="C104" t="s">
+        <v>2</v>
+      </c>
+      <c r="D104" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>168</v>
+      </c>
+      <c r="B105" t="s">
+        <v>169</v>
+      </c>
+      <c r="C105" t="s">
+        <v>2</v>
+      </c>
+      <c r="D105" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>170</v>
+      </c>
+      <c r="B106" t="s">
+        <v>171</v>
+      </c>
+      <c r="C106" t="s">
+        <v>2</v>
+      </c>
+      <c r="D106" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>220</v>
+      </c>
+      <c r="B107" t="s">
+        <v>221</v>
+      </c>
+      <c r="C107" t="s">
+        <v>2</v>
+      </c>
+      <c r="D107" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>172</v>
+      </c>
+      <c r="B108" t="s">
+        <v>173</v>
+      </c>
+      <c r="C108" t="s">
+        <v>2</v>
+      </c>
+      <c r="D108" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>174</v>
+      </c>
+      <c r="B109" t="s">
+        <v>175</v>
+      </c>
+      <c r="C109" t="s">
+        <v>2</v>
+      </c>
+      <c r="D109" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>176</v>
+      </c>
+      <c r="B110" t="s">
+        <v>180</v>
+      </c>
+      <c r="C110" t="s">
+        <v>2</v>
+      </c>
+      <c r="D110" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
         <v>179</v>
       </c>
-      <c r="B101" t="s">
-        <v>201</v>
-      </c>
-      <c r="C101" t="s">
-        <v>2</v>
-      </c>
-      <c r="D101" t="s">
+      <c r="B111" t="s">
+        <v>196</v>
+      </c>
+      <c r="C111" t="s">
+        <v>2</v>
+      </c>
+      <c r="D111" t="s">
         <v>3</v>
       </c>
     </row>
